--- a/regression_performance.xlsx
+++ b/regression_performance.xlsx
@@ -103,63 +103,63 @@
  39.36130214 30.23258656 34.75134282 62.71188703]</t>
   </si>
   <si>
-    <t>[40.68   6.28  19.35  22.49  79.99   7.72  43.38   6.47  51.96  35.3
- 41.05  43.57  33.61  38.66  13.12  12.73  16.26  52.82  41.89  56.1
- 25.75  11.17  34.24  13.54  40.71  45.08  32.88  51.04  14.4   46.23
- 22.44  48.4   54.9   30.22  41.24  36.3   12.46  40.23  29.65  67.7
+    <t>[40.68   4.78  19.35  22.49  74.99   8.37  43.38   6.47  51.96  35.3
+ 41.05  44.28  33.61  38.66  13.12  12.73  17.24  52.82  33.36  56.1
+ 33.4   11.17  34.24  13.54  40.71  45.08  32.88  51.04   7.75  46.23
+ 21.65  48.4   52.61  30.22  41.05  36.3    9.74  40.23  29.65  67.7
  10.34  27.22  52.96  35.86  39.94  55.45  81.75  25.56  32.4   13.2
- 18.13  23.52  41.05  39.66  23.52  48.85  81.75   7.51  39.36  56.14
- 18.2   56.81  41.72  45.3   36.35  26.06  42.35  28.63  43.73  67.11
- 63.4   20.08  45.94  37.27  54.32  13.52  24.185  8.54  38.41  52.42
- 29.07  50.08  39.36  22.95  25.89  30.65  57.22  31.88  51.06  25.45
- 27.63  26.86  65.91  35.85  26.85  21.91  24.89  27.42  40.29  46.93
- 43.57  13.4   39.7   11.39  22.44  52.04   9.87  15.53  19.99   9.74
- 14.7   37.17   7.72  52.42  30.22  19.2   47.22  25.45  66.42  17.24
- 68.5   49.77  46.68  31.18  40.15  32.11  12.84  42.64  43.39  56.5
- 32.72   9.56  31.88  37.34  44.28  24.44  17.17  56.5   25.45  53.1
- 36.3   41.84  39.94  15.34  28.63  33.4   31.97  17.82  29.87  31.97
- 33.7   29.07  28.63  44.4   12.84  39.42  18.2   30.65  48.28  55.06
- 17.57  35.17  36.15  19.54  13.57  41.05  27.63  26.86  19.2   60.95
- 38.77  61.86  23.25  45.37  60.29  24.185 20.77  14.6   40.15  36.97
- 26.91  25.37  43.5   29.23  59.49  39.59  71.99  79.3   79.99  33.72
- 35.34  22.44  40.71  40.23  79.99  27.22  34.24  11.47  66.82  39.7
- 45.08  41.64 ]</t>
-  </si>
-  <si>
-    <t>[38.9511      5.212      14.9501     37.8115     59.9538      9.6608
- 41.8977     10.4233     52.209025   31.59002    40.9929     47.0573
- 34.5949     39.07838167 15.2084     15.186      15.6331     51.7483
- 34.8151     43.2432     35.4988     11.9342     30.4983     15.2984
- 35.7387     48.207725   33.0642     52.75966667 14.0902     45.8799
- 23.0726     40.6591     50.2365     29.9838     39.0578     38.2756
- 11.7788     38.9163     30.8697     68.7203     13.4217     28.5609
- 51.4896     38.4158     44.1663     44.6794     62.69325    24.5998
- 34.7284     13.878      17.8382     20.6756     39.9892     37.0931
- 21.8667     46.1312     58.08265    10.2748     37.7416     52.929
- 29.0153     52.4654     40.9762     43.582      30.6838     28.052
- 39.5081     25.57       41.136075   62.8688     63.3707     23.6752
- 40.171      33.5585     50.0634     13.0128     24.95181571 11.7175
- 38.118      47.8215     29.7015     51.2772     37.9485     21.24173333
- 27.7577     34.2243     55.1313     31.9257     52.4989     29.8619
- 29.2296     27.0032     59.6797     34.2874     26.3036     20.98703333
- 28.2921     25.06805    41.4681     47.6149     43.8745     15.7874
- 45.4393     11.0346     23.0423     48.325525   14.7005     14.9738
- 23.7165     11.5686     16.6836     38.9036     10.097      49.9873
- 38.8905     32.30856667 47.1052     32.35203333 59.4752     19.9793
- 70.1971     46.4894     52.76316143 34.0679     41.5964     28.84179167
- 21.2983     38.7424     42.2614     61.26675    32.0287     20.5319
- 31.6247     39.2924     44.1488     22.0344     13.4232     61.98434643
- 26.6204     52.704      35.3837     41.1977     33.2663     17.6886
- 30.6258     35.7131     36.0842     19.1069     26.6627     34.5937
- 32.9649     29.7381     27.6136     42.8831     22.3545     42.6961
- 29.0153     32.5021     42.3528     51.4785     18.3806     37.0847
- 35.5209     17.8614     15.3551     40.8728     29.9782     31.76
- 21.7034     53.1523     37.5191     57.2645     25.0937     40.5961
- 64.02928333 25.055275   22.452      16.1176     39.4524     38.7825
- 32.3845     23.7413     48.4358     30.9429     59.98636167 34.5956
- 65.4751     72.69172857 66.0013     35.1511     34.8124     22.2736
- 36.3062     26.933      62.8385     25.6758     30.4983     11.6459
- 56.0952     46.4032     48.5105     35.15743333]</t>
+ 18.91  21.16  46.23  39.36  23.52  48.85  76.24   7.51  39.36  56.14
+ 18.2   56.81  43.25  45.3   36.35  25.61  44.3   28.63  43.73  67.11
+ 63.4   20.08  45.94  38.2   54.32  13.52  24.185  8.54  38.41  52.44
+ 29.07  51.06  39.36  22.95  26.26  30.65  57.22  31.88  50.08  25.45
+ 27.63  26.86  65.91  33.96  26.85  21.91  24.89  27.42  39.4   46.93
+ 43.57  13.4   39.7   11.39  21.65  52.04   9.87  15.53  19.99  12.46
+ 14.7   37.17   8.37  52.42  30.22  19.2   47.22  25.45  66.42  17.2
+ 68.5   45.3   46.68  29.59  40.15  32.11  12.84  42.64  43.39  56.5
+ 32.72   9.56  31.42  40.39  44.28  21.92  17.17  56.5   25.45  53.1
+ 36.3   41.84  47.4   15.34  28.63  33.4   31.97  17.82  29.41  31.97
+ 38.6   29.07  28.63  45.08  12.84  39.42  18.2   30.65  48.28  55.06
+ 17.57  35.17  36.15  21.92  13.57  41.24  34.56  26.86  19.2   60.95
+ 34.67  61.86  23.84  45.37  60.29  24.38  20.73  14.6   40.15  36.97
+ 26.91  22.72  43.5   29.23  59.49  38.33  69.66  79.3   69.84  33.72
+ 35.34  22.44  40.71  40.23  74.99  27.22  34.24  11.48  66.82  39.7
+ 44.4   41.64 ]</t>
+  </si>
+  <si>
+    <t>[39.5353      4.7994     13.2706     37.9869     55.2104      9.6472
+ 40.5563     10.1423     52.454      32.4654     41.7457     48.54375
+ 34.4344     39.06074429 15.3559     14.4474     15.7994     50.3334
+ 35.3743     40.17543333 33.9816     12.143      29.6515     14.7821
+ 35.9537     48.4138     32.7464     52.8669     14.1283     45.2565
+ 23.5755     44.0239     49.8356     30.7496     39.7028     39.1545
+ 11.3778     38.376      30.0642     68.8855     13.0409     27.5691
+ 51.9543     38.6749     44.8484     44.5763     58.95998333 24.0722
+ 35.5094     14.3523     17.877      20.7006     39.3405     38.0814
+ 21.149      44.1787     57.032      10.4613     37.6697     53.0934
+ 29.3776     52.9578     41.5513     43.9959     30.7506     28.30523333
+ 39.913      25.3371     40.3237     62.7444     62.3081     23.4491
+ 39.9209     33.2904     50.2208     13.3968     24.91244833 10.9574
+ 37.9373     46.7204     29.2658     51.30816667 37.9199     21.9171
+ 27.9176     33.6224     54.3634     31.4403     53.0297     29.2953
+ 29.6261     27.9976     61.5696     33.8275     27.6152     20.73032
+ 27.8326     23.23344    40.4762     48.9164     44.4167     16.2015
+ 45.1598     10.8065     23.5755     47.287      14.2136     15.1689
+ 23.6528     11.7943     16.7753     38.0617     10.0847     50.4668
+ 38.981425   32.40225    46.1303     34.31013333 58.536425   19.9377
+ 70.4214     47.0052     52.02237    33.2461     42.545      28.82510333
+ 20.643      38.3501     42.0525     61.3609     33.0107     19.9146
+ 31.8234     39.3481     44.1566     22.3197     12.3826     62.89496667
+ 25.9364     52.4518     35.9973     41.1671     34.9064     16.35
+ 30.9174     33.8863     35.2224     20.1324     26.7768     34.7804
+ 33.0192     29.2583     27.9782     43.0665     22.2612     42.1207
+ 29.3744     32.5094     41.0116     52.0009     16.978      37.565
+ 34.8811     18.1841     14.9579     40.7984     30.2856     30.8152
+ 22.48849    53.9026     37.222      57.21366667 24.787      39.6905
+ 64.447      24.92375833 21.7588     15.8312     39.5562     39.0468
+ 31.3114     24.1183     49.0642     30.8795     59.47258333 34.6456
+ 66.182      72.1734     64.7022     34.6688     34.5495     22.1361
+ 36.3745     27.1501     57.544      24.8098     29.6421     11.9473
+ 53.4277     46.5641     48.80156667 36.1918    ]</t>
   </si>
   <si>
     <t>[35.14032871 11.77238947 25.43214692 31.72067808 50.30287217 12.22207001
@@ -756,13 +756,13 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>7.354049551232314</v>
+        <v>7.161006803557308</v>
       </c>
       <c r="D3">
-        <v>0.7641040491137436</v>
+        <v>0.7763259736979142</v>
       </c>
       <c r="E3">
-        <v>4.748118811881188</v>
+        <v>4.717450495049505</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -785,13 +785,13 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>4.808727226574418</v>
+        <v>4.736642837874618</v>
       </c>
       <c r="D4">
-        <v>0.8991379785576803</v>
+        <v>0.9021392230275114</v>
       </c>
       <c r="E4">
-        <v>3.622969308109382</v>
+        <v>3.542292388024516</v>
       </c>
       <c r="F4">
         <v>1</v>

--- a/regression_performance.xlsx
+++ b/regression_performance.xlsx
@@ -103,63 +103,63 @@
  39.36130214 30.23258656 34.75134282 62.71188703]</t>
   </si>
   <si>
-    <t>[40.68   4.78  19.35  22.49  74.99   8.37  43.38   6.47  51.96  35.3
- 41.05  44.28  33.61  38.66  13.12  12.73  17.24  52.82  33.36  56.1
- 33.4   11.17  34.24  13.54  40.71  45.08  32.88  51.04   7.75  46.23
- 21.65  48.4   52.61  30.22  41.05  36.3    9.74  40.23  29.65  67.7
- 10.34  27.22  52.96  35.86  39.94  55.45  81.75  25.56  32.4   13.2
- 18.91  21.16  46.23  39.36  23.52  48.85  76.24   7.51  39.36  56.14
- 18.2   56.81  43.25  45.3   36.35  25.61  44.3   28.63  43.73  67.11
- 63.4   20.08  45.94  38.2   54.32  13.52  24.185  8.54  38.41  52.44
- 29.07  51.06  39.36  22.95  26.26  30.65  57.22  31.88  50.08  25.45
- 27.63  26.86  65.91  33.96  26.85  21.91  24.89  27.42  39.4   46.93
- 43.57  13.4   39.7   11.39  21.65  52.04   9.87  15.53  19.99  12.46
- 14.7   37.17   8.37  52.42  30.22  19.2   47.22  25.45  66.42  17.2
- 68.5   45.3   46.68  29.59  40.15  32.11  12.84  42.64  43.39  56.5
- 32.72   9.56  31.42  40.39  44.28  21.92  17.17  56.5   25.45  53.1
- 36.3   41.84  47.4   15.34  28.63  33.4   31.97  17.82  29.41  31.97
- 38.6   29.07  28.63  45.08  12.84  39.42  18.2   30.65  48.28  55.06
- 17.57  35.17  36.15  21.92  13.57  41.24  34.56  26.86  19.2   60.95
- 34.67  61.86  23.84  45.37  60.29  24.38  20.73  14.6   40.15  36.97
+    <t>[40.68   4.78  19.35  22.49  74.99   8.37  43.38   6.47  52.04  28.6
+ 41.05  39.42  33.61  38.66  13.62  12.73  16.26  52.82  33.36  56.1
+ 26.91  11.17  24.45  13.54  42.35  45.08  32.88  51.04  14.4   46.23
+ 21.65  48.4   55.6   40.15  41.24  36.3   12.46  40.23  29.65  67.7
+ 10.79  27.22  52.96  35.86  40.15  55.45  81.75  25.56  32.4   13.2
+ 18.13  21.16  41.05  39.66  23.52  48.85  76.24   7.51  39.36  56.14
+ 18.2   56.81  41.72  33.69  36.35  25.61  44.3   28.63  43.73  67.11
+ 63.4   20.08  47.28  37.27  54.32  13.52  24.185  8.54  38.41  43.38
+ 29.07  51.06  39.36  22.95  26.26  31.03  57.22  31.88  50.08  25.45
+ 27.63  26.86  65.91  35.34  26.85  21.91  25.1   27.42  39.4   46.93
+ 43.57  13.4   39.7   11.17  21.65  51.96   9.87  15.53  19.99   9.74
+ 14.7   37.17   8.37  52.42  40.15  19.2   47.22  25.45  66.42  17.2
+ 68.5   49.77  46.68  31.18  40.15  32.11  12.84  42.64  43.39  56.5
+ 32.72   9.56  31.42  39.23  44.28  24.44  17.17  56.5   25.45  53.1
+ 36.3   41.84  47.4   17.57  28.63  33.4   31.97  16.88  29.87  31.97
+ 33.7   29.07  33.27  44.4   12.84  39.42  18.2   30.65  48.28  55.06
+ 17.57  37.23  35.34  19.54  13.57  41.05  27.63  29.89  19.2   60.95
+ 34.67  61.86  23.84  45.37  60.29  24.38  20.77  14.6   40.15  36.97
  26.91  22.72  43.5   29.23  59.49  38.33  69.66  79.3   69.84  33.72
- 35.34  22.44  40.71  40.23  74.99  27.22  34.24  11.48  66.82  39.7
- 44.4   41.64 ]</t>
-  </si>
-  <si>
-    <t>[39.5353      4.7994     13.2706     37.9869     55.2104      9.6472
- 40.5563     10.1423     52.454      32.4654     41.7457     48.54375
- 34.4344     39.06074429 15.3559     14.4474     15.7994     50.3334
- 35.3743     40.17543333 33.9816     12.143      29.6515     14.7821
- 35.9537     48.4138     32.7464     52.8669     14.1283     45.2565
- 23.5755     44.0239     49.8356     30.7496     39.7028     39.1545
- 11.3778     38.376      30.0642     68.8855     13.0409     27.5691
- 51.9543     38.6749     44.8484     44.5763     58.95998333 24.0722
- 35.5094     14.3523     17.877      20.7006     39.3405     38.0814
- 21.149      44.1787     57.032      10.4613     37.6697     53.0934
- 29.3776     52.9578     41.5513     43.9959     30.7506     28.30523333
- 39.913      25.3371     40.3237     62.7444     62.3081     23.4491
- 39.9209     33.2904     50.2208     13.3968     24.91244833 10.9574
- 37.9373     46.7204     29.2658     51.30816667 37.9199     21.9171
- 27.9176     33.6224     54.3634     31.4403     53.0297     29.2953
- 29.6261     27.9976     61.5696     33.8275     27.6152     20.73032
- 27.8326     23.23344    40.4762     48.9164     44.4167     16.2015
- 45.1598     10.8065     23.5755     47.287      14.2136     15.1689
- 23.6528     11.7943     16.7753     38.0617     10.0847     50.4668
- 38.981425   32.40225    46.1303     34.31013333 58.536425   19.9377
- 70.4214     47.0052     52.02237    33.2461     42.545      28.82510333
- 20.643      38.3501     42.0525     61.3609     33.0107     19.9146
- 31.8234     39.3481     44.1566     22.3197     12.3826     62.89496667
- 25.9364     52.4518     35.9973     41.1671     34.9064     16.35
- 30.9174     33.8863     35.2224     20.1324     26.7768     34.7804
- 33.0192     29.2583     27.9782     43.0665     22.2612     42.1207
- 29.3744     32.5094     41.0116     52.0009     16.978      37.565
- 34.8811     18.1841     14.9579     40.7984     30.2856     30.8152
- 22.48849    53.9026     37.222      57.21366667 24.787      39.6905
- 64.447      24.92375833 21.7588     15.8312     39.5562     39.0468
- 31.3114     24.1183     49.0642     30.8795     59.47258333 34.6456
- 66.182      72.1734     64.7022     34.6688     34.5495     22.1361
- 36.3745     27.1501     57.544      24.8098     29.6421     11.9473
- 53.4277     46.5641     48.80156667 36.1918    ]</t>
+ 35.34  22.44  42.35  40.23  74.99  27.22  24.45  11.47  66.82  39.7
+ 46.64  36.3  ]</t>
+  </si>
+  <si>
+    <t>[39.0027      5.0568     14.5079     35.9222     59.1197      9.7674
+ 37.8702     10.2204     52.4051     31.52532    42.395      46.8186
+ 33.9091     39.02403333 14.8031     13.7433     15.6678     50.2976
+ 35.6391     42.3394     34.7163     12.1202     29.1956     15.4106
+ 35.439      48.2036     32.9989     52.96525    15.0187     44.6262
+ 23.2216     43.8359     49.7788     31.0913     39.2868     36.84445
+ 11.2507     38.0186     29.8217     68.2435     13.0645     26.6313
+ 51.7934     38.14057143 44.5879     44.9654     58.85483333 24.5498
+ 34.0847     14.0985     18.3213     19.6748     40.6545     37.7249
+ 20.4856     44.5833     57.0067      9.7818     38.7397     52.6776
+ 29.2657     51.6733     41.2994     44.1613     32.633      27.6967
+ 39.1455     25.88       40.3269     63.8175     62.3243     22.7925
+ 40.6325     33.7608     49.9209     13.1764     25.472615   11.1148
+ 38.1756     47.3885     29.6402     52.4172     39.0021     21.21786667
+ 28.1994     33.8147     55.2653     31.8627     52.0192     27.51593333
+ 28.5083     28.2261     59.7162     33.6828     26.6245     20.6303
+ 28.1344     24.13686667 40.43642    48.3786     43.5869     16.5558
+ 45.5207     11.1781     23.2216     46.6096     14.3578     14.9117
+ 22.3437     12.1593     16.39232    38.2451     10.0935     50.6967
+ 40.2439     32.3312     47.1328     31.48376667 59.1819     18.6956
+ 69.7964     46.6369     52.28759833 33.0176     42.6114     30.430175
+ 20.6597     37.6346     41.7648     62.0003     32.6353     20.1466
+ 31.9358     39.0291     44.6288     22.5776     13.8345     61.63496667
+ 25.6803     52.1535     34.72045    41.1834     34.5192     17.3306
+ 30.7895     35.1386     35.8439     20.0091     27.1383     33.7697
+ 33.2641     29.4007     28.5981     43.3463     21.9903     43.2498
+ 29.2637     32.7128     42.4315     51.5523     18.01613333 37.2184
+ 35.8069     19.0632     15.5726     40.8828     30.75       31.8366
+ 21.4969     53.1476     36.94643333 57.5805     25.0984     40.0958
+ 64.44893333 25.1319     22.0681     15.662      39.4612     39.7539
+ 32.0758     23.6723     47.1914     31.1349     59.833465   34.5835
+ 65.1501     72.6713     65.41815    34.4158     34.4124     22.3866
+ 36.0568     26.2625     61.0378     24.5146     29.197      11.5854
+ 53.3795     46.5635     49.8959     34.73965   ]</t>
   </si>
   <si>
     <t>[35.14032871 11.77238947 25.43214692 31.72067808 50.30287217 12.22207001
@@ -756,13 +756,13 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>7.161006803557308</v>
+        <v>6.945916930467172</v>
       </c>
       <c r="D3">
-        <v>0.7763259736979142</v>
+        <v>0.7895608432325194</v>
       </c>
       <c r="E3">
-        <v>4.717450495049505</v>
+        <v>4.653490099009901</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -785,13 +785,13 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>4.736642837874618</v>
+        <v>4.811104317988233</v>
       </c>
       <c r="D4">
-        <v>0.9021392230275114</v>
+        <v>0.8990382359465775</v>
       </c>
       <c r="E4">
-        <v>3.542292388024516</v>
+        <v>3.637064082979727</v>
       </c>
       <c r="F4">
         <v>1</v>

--- a/regression_performance.xlsx
+++ b/regression_performance.xlsx
@@ -103,63 +103,63 @@
  39.36130214 30.23258656 34.75134282 62.71188703]</t>
   </si>
   <si>
-    <t>[40.68   4.78  19.35  22.49  74.99   8.37  43.38   6.47  52.04  28.6
- 41.05  39.42  33.61  38.66  13.62  12.73  16.26  52.82  33.36  56.1
- 26.91  11.17  24.45  13.54  42.35  45.08  32.88  51.04  14.4   46.23
- 21.65  48.4   55.6   40.15  41.24  36.3   12.46  40.23  29.65  67.7
+    <t>[40.68   4.78  19.35  22.49  74.99   7.72  43.38   6.47  51.96  35.3
+ 41.05  74.7   33.61  38.66  13.62  10.22  17.24  52.82  41.89  56.1
+ 33.4   11.17  24.45  13.54  40.71  45.08  32.88  51.04   7.75  46.23
+ 21.65  48.4   54.9   39.94  41.24  37.8    9.74  40.23  29.65  67.7
  10.79  27.22  52.96  35.86  40.15  55.45  81.75  25.56  32.4   13.2
- 18.13  21.16  41.05  39.66  23.52  48.85  76.24   7.51  39.36  56.14
- 18.2   56.81  41.72  33.69  36.35  25.61  44.3   28.63  43.73  67.11
- 63.4   20.08  47.28  37.27  54.32  13.52  24.185  8.54  38.41  43.38
- 29.07  51.06  39.36  22.95  26.26  31.03  57.22  31.88  50.08  25.45
- 27.63  26.86  65.91  35.34  26.85  21.91  25.1   27.42  39.4   46.93
- 43.57  13.4   39.7   11.17  21.65  51.96   9.87  15.53  19.99   9.74
- 14.7   37.17   8.37  52.42  40.15  19.2   47.22  25.45  66.42  17.2
+ 18.91  21.18  41.05  39.36  23.52  48.85  81.75   7.51  39.36  56.14
+ 18.2   56.81  41.72  45.3   36.35  25.61  42.35  28.63  43.73  67.11
+ 63.4   20.08  47.28  33.69  54.32  13.52  24.185  8.54  38.41  52.42
+ 29.07  50.08  39.36  22.95  24.44  30.65  57.22  31.88  51.06  25.45
+ 27.63  26.86  65.91  35.85  26.85  21.91  25.1   27.42  39.4   46.93
+ 43.57  13.4   39.7   11.17  21.65  52.04   9.87  15.53  19.99  12.46
+ 14.7   37.17   7.72  52.42  39.94  19.2   44.13  25.45  66.42  17.24
  68.5   49.77  46.68  31.18  40.15  32.11  12.84  42.64  43.39  56.5
- 32.72   9.56  31.42  39.23  44.28  24.44  17.17  56.5   25.45  53.1
- 36.3   41.84  47.4   17.57  28.63  33.4   31.97  16.88  29.87  31.97
- 33.7   29.07  33.27  44.4   12.84  39.42  18.2   30.65  48.28  55.06
- 17.57  37.23  35.34  19.54  13.57  41.05  27.63  29.89  19.2   60.95
- 34.67  61.86  23.84  45.37  60.29  24.38  20.77  14.6   40.15  36.97
- 26.91  22.72  43.5   29.23  59.49  38.33  69.66  79.3   69.84  33.72
- 35.34  22.44  42.35  40.23  74.99  27.22  24.45  11.47  66.82  39.7
- 46.64  36.3  ]</t>
-  </si>
-  <si>
-    <t>[39.0027      5.0568     14.5079     35.9222     59.1197      9.7674
- 37.8702     10.2204     52.4051     31.52532    42.395      46.8186
- 33.9091     39.02403333 14.8031     13.7433     15.6678     50.2976
- 35.6391     42.3394     34.7163     12.1202     29.1956     15.4106
- 35.439      48.2036     32.9989     52.96525    15.0187     44.6262
- 23.2216     43.8359     49.7788     31.0913     39.2868     36.84445
- 11.2507     38.0186     29.8217     68.2435     13.0645     26.6313
- 51.7934     38.14057143 44.5879     44.9654     58.85483333 24.5498
- 34.0847     14.0985     18.3213     19.6748     40.6545     37.7249
- 20.4856     44.5833     57.0067      9.7818     38.7397     52.6776
- 29.2657     51.6733     41.2994     44.1613     32.633      27.6967
- 39.1455     25.88       40.3269     63.8175     62.3243     22.7925
- 40.6325     33.7608     49.9209     13.1764     25.472615   11.1148
- 38.1756     47.3885     29.6402     52.4172     39.0021     21.21786667
- 28.1994     33.8147     55.2653     31.8627     52.0192     27.51593333
- 28.5083     28.2261     59.7162     33.6828     26.6245     20.6303
- 28.1344     24.13686667 40.43642    48.3786     43.5869     16.5558
- 45.5207     11.1781     23.2216     46.6096     14.3578     14.9117
- 22.3437     12.1593     16.39232    38.2451     10.0935     50.6967
- 40.2439     32.3312     47.1328     31.48376667 59.1819     18.6956
- 69.7964     46.6369     52.28759833 33.0176     42.6114     30.430175
- 20.6597     37.6346     41.7648     62.0003     32.6353     20.1466
- 31.9358     39.0291     44.6288     22.5776     13.8345     61.63496667
- 25.6803     52.1535     34.72045    41.1834     34.5192     17.3306
- 30.7895     35.1386     35.8439     20.0091     27.1383     33.7697
- 33.2641     29.4007     28.5981     43.3463     21.9903     43.2498
- 29.2637     32.7128     42.4315     51.5523     18.01613333 37.2184
- 35.8069     19.0632     15.5726     40.8828     30.75       31.8366
- 21.4969     53.1476     36.94643333 57.5805     25.0984     40.0958
- 64.44893333 25.1319     22.0681     15.662      39.4612     39.7539
- 32.0758     23.6723     47.1914     31.1349     59.833465   34.5835
- 65.1501     72.6713     65.41815    34.4158     34.4124     22.3866
- 36.0568     26.2625     61.0378     24.5146     29.197      11.5854
- 53.3795     46.5635     49.8959     34.73965   ]</t>
+ 32.72   9.56  31.42  37.96  44.28  21.92  17.17  56.5   25.45  53.1
+ 37.8   41.84  47.4   15.34  28.63  33.4   31.97  16.88  29.72  31.97
+ 33.7   29.07  33.27  44.4   20.77  74.7   18.2   30.65  48.28  55.06
+ 17.57  37.23  36.15  19.54  13.57  41.05  27.63  26.86  19.2   60.95
+ 34.67  61.86  23.25  45.37  60.29  24.38  20.73  14.6   40.15  36.97
+ 26.91  26.05  39.15  29.23  59.49  38.33  71.99  79.3   74.99  33.72
+ 35.34  22.44  40.71  40.23  74.99  27.22  24.45  11.47  66.82  39.7
+ 46.64  37.8  ]</t>
+  </si>
+  <si>
+    <t>[39.4653      5.1817     14.6785     37.6194     58.7562      9.8361
+ 40.1589     10.3042     52.2287     32.1489     42.5785     46.855
+ 34.7805     39.31621167 14.2694     13.6736     15.9348     50.1452
+ 36.3824     42.95746667 34.8117     11.8504     29.3933     14.6786
+ 34.794      48.3067     33.0871     52.8437     14.4651     45.0311
+ 23.8863     43.166      49.9678     31.2327     38.921      37.38746667
+ 11.4236     38.5944     30.5818     67.6575     13.1587     27.5674
+ 51.6591     39.7466     45.9394     44.1777     58.21471    23.8196
+ 35.394      14.5592     18.4506     19.6497     38.8264     38.1933
+ 20.0822     45.6088     56.8936      9.5821     38.7305     52.9201
+ 29.1041     52.1258     40.8775     42.7948     32.228      28.27855
+ 38.2178     24.7758     40.0365     61.882      60.8383     22.7248
+ 39.8785     32.761      49.6775     13.6329     26.05756556 11.2652
+ 37.6322     49.4642     30.0036     49.5122     38.9655     22.02236667
+ 28.6885     34.2193     55.927      31.9963     53.0459     29.0317
+ 28.7625     28.326      59.3423     33.6682     26.5979     20.7521
+ 28.0958     23.35353333 40.37825714 47.9763     44.1721     15.8224
+ 45.6792     10.9682     23.8942     47.1445     14.6325     15.1377
+ 21.9257     11.6799     16.85235    38.575      10.2361     50.2223
+ 40.1906     32.3803     47.9995     33.0567     55.92035    18.7601
+ 70.664575   46.3293     51.20379095 33.7662     43.1773     29.92260167
+ 21.4705     37.9258     42.1869     60.56183333 32.5999     19.7997
+ 31.6656     39.7428     44.0609     22.3109     13.1406     61.21866
+ 26.705      51.4342     35.01566667 41.3204     33.8736     17.3783
+ 31.5201     34.8692     36.6197     19.6497     26.1321     33.7283
+ 32.459      29.9647     27.4264     42.0274     21.8053     42.2284
+ 29.0867     32.3219     42.2292     51.6449     18.0219     37.7444
+ 35.4653     18.4574     15.4107     40.7983     30.5622     31.3368
+ 21.60345    52.2121     36.8839     58.2349     25.4745     41.3504
+ 62.4794     25.64069167 21.6834     17.1049     39.096      40.3295
+ 31.4065     23.9484     48.5709     30.9835     59.88711167 33.4174
+ 66.0838     71.5414     65.5257     35.4229     34.3516     22.3449
+ 35.0788     27.9329     61.0439     25.6795     29.4593     11.6994
+ 55.4563     46.7953     44.9387     35.22216667]</t>
   </si>
   <si>
     <t>[35.14032871 11.77238947 25.43214692 31.72067808 50.30287217 12.22207001
@@ -756,13 +756,13 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>6.945916930467172</v>
+        <v>7.793682934795258</v>
       </c>
       <c r="D3">
-        <v>0.7895608432325194</v>
+        <v>0.735056755633513</v>
       </c>
       <c r="E3">
-        <v>4.653490099009901</v>
+        <v>4.9225</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -785,13 +785,13 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>4.811104317988233</v>
+        <v>4.681637555404179</v>
       </c>
       <c r="D4">
-        <v>0.8990382359465775</v>
+        <v>0.904398884587877</v>
       </c>
       <c r="E4">
-        <v>3.637064082979727</v>
+        <v>3.548683299937137</v>
       </c>
       <c r="F4">
         <v>1</v>

--- a/regression_performance.xlsx
+++ b/regression_performance.xlsx
@@ -103,63 +103,63 @@
  39.36130214 30.23258656 34.75134282 62.71188703]</t>
   </si>
   <si>
-    <t>[40.68   4.78  19.35  22.49  74.99   7.72  43.38   6.47  51.96  35.3
- 41.05  74.7   33.61  38.66  13.62  10.22  17.24  52.82  41.89  56.1
- 33.4   11.17  24.45  13.54  40.71  45.08  32.88  51.04   7.75  46.23
- 21.65  48.4   54.9   39.94  41.24  37.8    9.74  40.23  29.65  67.7
- 10.79  27.22  52.96  35.86  40.15  55.45  81.75  25.56  32.4   13.2
- 18.91  21.18  41.05  39.36  23.52  48.85  81.75   7.51  39.36  56.14
- 18.2   56.81  41.72  45.3   36.35  25.61  42.35  28.63  43.73  67.11
- 63.4   20.08  47.28  33.69  54.32  13.52  24.185  8.54  38.41  52.42
+    <t>[40.68   6.28  19.35  22.49  74.99   8.37  43.38   6.47  52.04  35.3
+ 41.05  37.17  33.61  38.66  13.62  10.22  17.24  52.82  33.36  56.1
+ 33.4   11.17  34.24  13.54  42.35  45.08  33.    51.04   7.75  46.23
+ 21.65  48.4   54.9   39.94  41.24  37.8    9.74  40.23  29.65  66.95
+ 10.34  27.22  52.96  35.86  39.94  55.45  81.75  25.56  32.4   13.2
+ 18.91  21.16  41.05  36.59  23.52  48.85  76.24   7.51  39.36  56.14
+ 18.2   56.81  41.72  33.69  36.35  25.61  42.35  28.63  43.73  67.11
+ 63.4   20.08  45.94  37.27  54.32  13.52  24.185  8.54  38.41  52.42
  29.07  50.08  39.36  22.95  24.44  30.65  57.22  31.88  51.06  25.45
- 27.63  26.86  65.91  35.85  26.85  21.91  25.1   27.42  39.4   46.93
- 43.57  13.4   39.7   11.17  21.65  52.04   9.87  15.53  19.99  12.46
- 14.7   37.17   7.72  52.42  39.94  19.2   44.13  25.45  66.42  17.24
+ 27.63  26.86  65.91  35.85  26.85  21.91  25.1   28.8   39.4   46.93
+ 43.57  13.4   39.7   11.17  21.65  51.96   9.87  15.53  19.99  12.46
+ 14.7   37.17   8.37  52.42  39.94  19.2   44.13  25.45  66.42  17.24
  68.5   49.77  46.68  31.18  40.15  32.11  12.84  42.64  43.39  56.5
- 32.72   9.56  31.42  37.96  44.28  21.92  17.17  56.5   25.45  53.1
- 37.8   41.84  47.4   15.34  28.63  33.4   31.97  16.88  29.72  31.97
- 33.7   29.07  33.27  44.4   20.77  74.7   18.2   30.65  48.28  55.06
- 17.57  37.23  36.15  19.54  13.57  41.05  27.63  26.86  19.2   60.95
- 34.67  61.86  23.25  45.37  60.29  24.38  20.73  14.6   40.15  36.97
- 26.91  26.05  39.15  29.23  59.49  38.33  71.99  79.3   74.99  33.72
- 35.34  22.44  40.71  40.23  74.99  27.22  24.45  11.47  66.82  39.7
- 46.64  37.8  ]</t>
-  </si>
-  <si>
-    <t>[39.4653      5.1817     14.6785     37.6194     58.7562      9.8361
- 40.1589     10.3042     52.2287     32.1489     42.5785     46.855
- 34.7805     39.31621167 14.2694     13.6736     15.9348     50.1452
- 36.3824     42.95746667 34.8117     11.8504     29.3933     14.6786
- 34.794      48.3067     33.0871     52.8437     14.4651     45.0311
- 23.8863     43.166      49.9678     31.2327     38.921      37.38746667
- 11.4236     38.5944     30.5818     67.6575     13.1587     27.5674
- 51.6591     39.7466     45.9394     44.1777     58.21471    23.8196
- 35.394      14.5592     18.4506     19.6497     38.8264     38.1933
- 20.0822     45.6088     56.8936      9.5821     38.7305     52.9201
- 29.1041     52.1258     40.8775     42.7948     32.228      28.27855
- 38.2178     24.7758     40.0365     61.882      60.8383     22.7248
- 39.8785     32.761      49.6775     13.6329     26.05756556 11.2652
- 37.6322     49.4642     30.0036     49.5122     38.9655     22.02236667
- 28.6885     34.2193     55.927      31.9963     53.0459     29.0317
- 28.7625     28.326      59.3423     33.6682     26.5979     20.7521
- 28.0958     23.35353333 40.37825714 47.9763     44.1721     15.8224
- 45.6792     10.9682     23.8942     47.1445     14.6325     15.1377
- 21.9257     11.6799     16.85235    38.575      10.2361     50.2223
- 40.1906     32.3803     47.9995     33.0567     55.92035    18.7601
- 70.664575   46.3293     51.20379095 33.7662     43.1773     29.92260167
- 21.4705     37.9258     42.1869     60.56183333 32.5999     19.7997
- 31.6656     39.7428     44.0609     22.3109     13.1406     61.21866
- 26.705      51.4342     35.01566667 41.3204     33.8736     17.3783
- 31.5201     34.8692     36.6197     19.6497     26.1321     33.7283
- 32.459      29.9647     27.4264     42.0274     21.8053     42.2284
- 29.0867     32.3219     42.2292     51.6449     18.0219     37.7444
- 35.4653     18.4574     15.4107     40.7983     30.5622     31.3368
- 21.60345    52.2121     36.8839     58.2349     25.4745     41.3504
- 62.4794     25.64069167 21.6834     17.1049     39.096      40.3295
- 31.4065     23.9484     48.5709     30.9835     59.88711167 33.4174
- 66.0838     71.5414     65.5257     35.4229     34.3516     22.3449
- 35.0788     27.9329     61.0439     25.6795     29.4593     11.6994
- 55.4563     46.7953     44.9387     35.22216667]</t>
+ 32.72   9.56  31.42  40.57  44.28  21.92  17.17  56.5   25.45  53.1
+ 36.3   41.84  39.94  15.34  28.63  33.4   31.97  16.88  29.72  31.97
+ 33.7   29.07  28.63  44.4   12.84  39.42  18.2   30.65  48.28  55.06
+ 15.34  37.23  36.15  19.54  13.57  41.05  27.63  28.24  19.2   60.95
+ 38.77  61.86  23.25  45.37  60.29  24.38  20.73  14.6   40.15  36.97
+ 26.91  23.51  43.5   31.02  59.49  39.59  71.99  79.3   74.99  33.72
+ 35.34  22.44  42.35  40.23  74.99  27.22  34.24  11.47  67.87  39.7
+ 45.08  41.1  ]</t>
+  </si>
+  <si>
+    <t>[38.7895      4.8722     13.7546     36.6671     60.1535      9.0112
+ 39.4595     10.47       52.3899     31.64222    42.9028     46.2017
+ 34.5534     39.69998    14.538      14.5426     15.9315     49.5045
+ 37.127      41.3986     34.25       12.2809     28.8795     14.8633
+ 35.0207     48.259      33.3812     53.07714    15.0551     44.6738
+ 23.7297     40.5455     49.3036     30.2133     39.2797     38.0157
+ 11.706      37.565      30.5288     67.5937     13.4817     26.8758
+ 52.1964     38.8702     45.8385     44.012      62.367      24.6105
+ 35.0373     14.1858     18.2767     19.9972     40.2597     38.6673
+ 21.8017     44.3657     57.5134      9.9079     38.3385     52.6422
+ 29.7199     53.7788     40.9023     44.2234     31.542      29.47295
+ 38.8733     27.1309     41.6658     62.6859     63.5673     23.2347
+ 41.45175    33.18       49.3184     12.9786     25.82155    11.7648
+ 37.7776     46.2024     29.6832     50.2129     38.7226     22.19738
+ 27.5749     34.584      55.03       31.6438     52.6363     27.0514
+ 28.6786     27.8262     60.93       33.7705     26.7148     20.1774
+ 29.0677     24.25946667 41.2976     48.3337     43.7344     15.7874
+ 45.992      11.5879     23.7052     47.3466     14.5        14.9929
+ 23.2323     11.6572     16.0309     38.8802      9.8166     48.8864
+ 37.8571     32.6078     46.487      31.2924     56.5135     20.0891
+ 70.55679333 45.8292     52.59803333 33.2934     42.1528     29.45589333
+ 19.8464     37.7404     41.285      64.45898833 32.1908     20.4726
+ 31.1314     38.8216     44.0433     22.1848     13.2655     62.9661
+ 26.07258    52.452      35.5784     41.5643     34.5644     16.7898
+ 31.1054     33.9118     35.6181     20.1184     26.4109     33.6368
+ 32.9928     29.6832     27.8984     42.709      21.8801     41.5073
+ 29.7199     33.0338     42.7703     51.4712     18.0082     38.0522
+ 34.8536     17.8207     15.4972     40.6917     30.1868     31.7249
+ 22.03153    53.6349     38.0758     58.5014     25.404      40.6557
+ 64.3657     25.5012     22.135      15.431      39.3556     39.329
+ 30.3675     23.3421     50.4069     31.5373     59.97160833 33.048
+ 66.4701     72.037625   66.00155    35.5762     35.3374     22.7452
+ 35.5132     25.9184     62.3122     24.5376     28.8823     11.6979
+ 56.2492     47.3417     46.9904     35.7123    ]</t>
   </si>
   <si>
     <t>[35.14032871 11.77238947 25.43214692 31.72067808 50.30287217 12.22207001
@@ -756,13 +756,13 @@
         <v>18</v>
       </c>
       <c r="C3">
-        <v>7.793682934795258</v>
+        <v>7.021543765899038</v>
       </c>
       <c r="D3">
-        <v>0.735056755633513</v>
+        <v>0.7849533917717115</v>
       </c>
       <c r="E3">
-        <v>4.9225</v>
+        <v>4.636361386138614</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -785,13 +785,13 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>4.681637555404179</v>
+        <v>4.760850974745188</v>
       </c>
       <c r="D4">
-        <v>0.904398884587877</v>
+        <v>0.9011363688955938</v>
       </c>
       <c r="E4">
-        <v>3.548683299937137</v>
+        <v>3.593932499999998</v>
       </c>
       <c r="F4">
         <v>1</v>
